--- a/data/case1/18/Qlm2_14.xlsx
+++ b/data/case1/18/Qlm2_14.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.18950838845779572</v>
+        <v>-0.22594800312889163</v>
       </c>
       <c r="B1" s="0">
-        <v>0.18939737093928244</v>
+        <v>0.2257775568961975</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.16729102386329586</v>
+        <v>-0.20367121235961694</v>
       </c>
       <c r="B2" s="0">
-        <v>0.16685188489418223</v>
+        <v>0.20299410486823621</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.11714801289349275</v>
+        <v>-0.11124527720195942</v>
       </c>
       <c r="B3" s="0">
-        <v>0.11686944387461473</v>
+        <v>0.11093568000425336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.10886944389383935</v>
+        <v>-0.1029356800225969</v>
       </c>
       <c r="B4" s="0">
-        <v>0.10831773547227996</v>
+        <v>0.10247341700745238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.10531773548340695</v>
+        <v>-0.099473417018081989</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1034321147505004</v>
+        <v>0.097902837865131431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.038451908396252676</v>
+        <v>-0.047193694216497661</v>
       </c>
       <c r="B6" s="0">
-        <v>0.038067874089826148</v>
+        <v>0.046725314151691677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.028067874117511327</v>
+        <v>-0.036725314177425972</v>
       </c>
       <c r="B7" s="0">
-        <v>0.027981284900725267</v>
+        <v>0.036613820809900943</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.017981284929025954</v>
+        <v>-0.026613820836378199</v>
       </c>
       <c r="B8" s="0">
-        <v>0.01784685124764529</v>
+        <v>0.02642359506033376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.015846851261656969</v>
+        <v>-0.024423595073642002</v>
       </c>
       <c r="B9" s="0">
-        <v>0.015743005328899162</v>
+        <v>0.024269930043501642</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.013743005343483716</v>
+        <v>-0.022269930057625231</v>
       </c>
       <c r="B10" s="0">
-        <v>0.013736651272045819</v>
+        <v>0.02225976793762463</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.01073665128852852</v>
+        <v>-0.019259767953597517</v>
       </c>
       <c r="B11" s="0">
-        <v>0.010727177597133597</v>
+        <v>0.01924393606816821</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0072271776146273226</v>
+        <v>-0.015743936085210297</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0071689609025211709</v>
+        <v>0.015637739309380283</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0036689609204039186</v>
+        <v>-0.017172187527815019</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0036485141667927934</v>
+        <v>0.01708323456229266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0043514858068540718</v>
+        <v>-0.0090832345882789767</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0043544484949000761</v>
+        <v>0.0090539229138801858</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.005354448481683427</v>
+        <v>-0.0080539229277638569</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0053555836298775361</v>
+        <v>0.0080349716956913397</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0073555836149110654</v>
+        <v>-0.0060349717115113499</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0073635606404018894</v>
+        <v>0.006003747258722214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040036501943419012</v>
+        <v>-0.0040037472748082337</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999815227838</v>
+        <v>0.0039999999803264075</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016106347087674777</v>
+        <v>-0.016106344547644369</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091846887963612</v>
+        <v>0.016091941873813909</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.01209184689588616</v>
+        <v>-0.012091941881424262</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012017168272940637</v>
+        <v>0.012017209502860116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080171682814444978</v>
+        <v>-0.0080172095109052322</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080057030771349957</v>
+        <v>0.0080057216971578526</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057030857383324</v>
+        <v>-0.0040057217052904548</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999913327144</v>
+        <v>0.003999999991803449</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045703872011184643</v>
+        <v>-0.087748827676540131</v>
       </c>
       <c r="B22" s="0">
-        <v>0.04549274645324175</v>
+        <v>0.087170243019917493</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040492746466213703</v>
+        <v>-0.075636629491797613</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097868087582533</v>
+        <v>0.074563893705533957</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.02009786812971015</v>
+        <v>-0.020099660266230224</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999957325265</v>
+        <v>0.019999999958019821</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.05243810737962562</v>
+        <v>-0.048709143660063958</v>
       </c>
       <c r="B25" s="0">
-        <v>0.052396003180831485</v>
+        <v>0.048674389228363424</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.049896003194506378</v>
+        <v>-0.046174389240887237</v>
       </c>
       <c r="B26" s="0">
-        <v>0.049845468282958549</v>
+        <v>0.0461332876537206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.047345468297054438</v>
+        <v>-0.043633287666605458</v>
       </c>
       <c r="B27" s="0">
-        <v>0.047068622048697772</v>
+        <v>0.043411705595068018</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.045068622063679342</v>
+        <v>-0.041411705608473071</v>
       </c>
       <c r="B28" s="0">
-        <v>0.044894345516669709</v>
+        <v>0.041274662876591428</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.037894345542244245</v>
+        <v>-0.034274662899739461</v>
       </c>
       <c r="B29" s="0">
-        <v>0.037854907035287155</v>
+        <v>0.03424543224528076</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.046510912072842192</v>
+        <v>0.025754567638212489</v>
       </c>
       <c r="B30" s="0">
-        <v>0.046143648777596358</v>
+        <v>-0.025797868836482607</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.039143648805483267</v>
+        <v>0.032797868813577935</v>
       </c>
       <c r="B31" s="0">
-        <v>0.039058792922073593</v>
+        <v>-0.032826981644157982</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.029058792955975576</v>
+        <v>-0.0040016224004357781</v>
       </c>
       <c r="B32" s="0">
-        <v>0.029009570257136019</v>
+        <v>0.0039999999825788279</v>
       </c>
     </row>
   </sheetData>
